--- a/Project Docs/Burndown Chart.xlsx
+++ b/Project Docs/Burndown Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicosavage/Desktop/Project Management/Gnoth-Project/Project Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE8C4032-A645-534A-9A59-031A6B2CEB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FD0BFC-C613-4745-B3CD-4284C66479B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48920" yWindow="-6820" windowWidth="18280" windowHeight="17500" xr2:uid="{690006D1-23EF-FB4E-B498-B4633CE9900B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{690006D1-23EF-FB4E-B498-B4633CE9900B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,6 +273,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1484,7 +1487,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1574,6 +1577,9 @@
       <c r="A8" s="1">
         <v>44979</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8">
         <v>1</v>
       </c>

--- a/Project Docs/Burndown Chart.xlsx
+++ b/Project Docs/Burndown Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicosavage/Desktop/Project Management/Gnoth-Project/Project Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FD0BFC-C613-4745-B3CD-4284C66479B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4D966E-3170-7B45-B827-38FC1045324A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{690006D1-23EF-FB4E-B498-B4633CE9900B}"/>
   </bookViews>
@@ -188,7 +188,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Planned</c:v>
+                  <c:v>Actual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -299,7 +299,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Actual</c:v>
+                  <c:v>Planned</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1487,7 +1487,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1501,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
